--- a/Output/Middleton_2000 Middleton 2000 OS Non_DTIC parameters.xlsx
+++ b/Output/Middleton_2000 Middleton 2000 OS Non_DTIC parameters.xlsx
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.02920667547382</v>
+        <v>-2.04690973252514</v>
       </c>
       <c r="C2" t="n">
-        <v>0.101386015116349</v>
+        <v>0.0737316968516354</v>
       </c>
       <c r="D2" t="n">
         <v>855.275211138602</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.165252558924571</v>
+        <v>-0.171946395700535</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04858091302945</v>
+        <v>0.0388523711236188</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1.12639172344645</v>
+        <v>1.13237362326564</v>
       </c>
       <c r="C2" t="n">
-        <v>0.105907986747605</v>
+        <v>0.0882260712790033</v>
       </c>
       <c r="D2" t="n">
         <v>843.857189999827</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.699866140753643</v>
+        <v>-0.691559258068776</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0462881852377329</v>
+        <v>0.0375498739940975</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.61323348320391</v>
+        <v>-1.64016821659955</v>
       </c>
       <c r="C2" t="n">
-        <v>0.121792974479335</v>
+        <v>0.0855002121713666</v>
       </c>
       <c r="D2" t="n">
         <v>844.798522581894</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.20063498888004</v>
+        <v>1.1820943127845</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0808011520191903</v>
+        <v>0.0656643713394952</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.84249044736258</v>
+        <v>-1.86178907503081</v>
       </c>
       <c r="C2" t="n">
-        <v>0.127874783169237</v>
+        <v>0.0914459151885326</v>
       </c>
       <c r="D2" t="n">
         <v>846.771634914215</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0639210532659732</v>
+        <v>-0.0646415225040878</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0168349599084398</v>
+        <v>0.0128324640774315</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0102791240611726</v>
+        <v>0.00543636312062147</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0018486256997203</v>
+        <v>-0.00158773213442984</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0018486256997203</v>
+        <v>-0.00158773213442984</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00236010511077498</v>
+        <v>0.00150950674192741</v>
       </c>
     </row>
   </sheetData>
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0112165016569309</v>
+        <v>0.00778383965332777</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00303414204430054</v>
+        <v>-0.00251196077708807</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00303414204430054</v>
+        <v>-0.00251196077708807</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00214259609260268</v>
+        <v>0.0014099930369726</v>
       </c>
     </row>
   </sheetData>
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0148335286325239</v>
+        <v>0.0073102862813487</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00119713614630879</v>
+        <v>-0.000502977650851661</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00119713614630879</v>
+        <v>-0.000502977650851661</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0065288261676283</v>
+        <v>0.00431180966341111</v>
       </c>
     </row>
   </sheetData>
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0163519601705793</v>
+        <v>0.0083623554046683</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00153860905264522</v>
+        <v>-0.00089930462489449</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00153860905264522</v>
+        <v>-0.00089930462489449</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000283415875118776</v>
+        <v>0.000164672134298569</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Middleton_2000 Middleton 2000 OS Non_DTIC parameters.xlsx
+++ b/Output/Middleton_2000 Middleton 2000 OS Non_DTIC parameters.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -375,12 +375,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.04690973252514</v>
+        <v>-2.02920667547382</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0737316968516354</v>
+        <v>0.101386015116349</v>
       </c>
       <c r="D2" t="n">
         <v>855.275211138602</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.171946395700535</v>
+        <v>-0.165252558924571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0388523711236188</v>
+        <v>0.04858091302945</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -436,12 +436,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1"/>
@@ -453,12 +453,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1.13237362326564</v>
+        <v>1.12639172344645</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0882260712790033</v>
+        <v>0.105907986747605</v>
       </c>
       <c r="D2" t="n">
         <v>843.857189999827</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.691559258068776</v>
+        <v>-0.699866140753643</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0375498739940975</v>
+        <v>0.0462881852377329</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -514,12 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.64016821659955</v>
+        <v>-1.61323348320391</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0855002121713666</v>
+        <v>0.121792974479335</v>
       </c>
       <c r="D2" t="n">
         <v>844.798522581894</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.1820943127845</v>
+        <v>0.180586724304846</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0656643713394952</v>
+        <v>0.0673717463977423</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -575,12 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.86178907503081</v>
+        <v>-1.84249044736258</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0914459151885326</v>
+        <v>0.127874783169237</v>
       </c>
       <c r="D2" t="n">
         <v>846.771634914215</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0646415225040878</v>
+        <v>-0.0639210532659732</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0128324640774315</v>
+        <v>0.0168349599084398</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -636,12 +636,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -684,12 +684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00543636312062147</v>
+        <v>0.0102791240611726</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00158773213442984</v>
+        <v>-0.0018486256997203</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00158773213442984</v>
+        <v>-0.0018486256997203</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00150950674192741</v>
+        <v>0.00236010511077498</v>
       </c>
     </row>
   </sheetData>
@@ -722,12 +722,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00778383965332777</v>
+        <v>0.0112165016569309</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00251196077708807</v>
+        <v>-0.00303414204430054</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00251196077708807</v>
+        <v>-0.00303414204430054</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0014099930369726</v>
+        <v>0.00214259609260268</v>
       </c>
     </row>
   </sheetData>
@@ -760,12 +760,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0073102862813487</v>
+        <v>0.0148335286325239</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.000502977650851661</v>
+        <v>0.00101856287708708</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.000502977650851661</v>
+        <v>0.00101856287708708</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00431180966341111</v>
+        <v>0.0045389522126817</v>
       </c>
     </row>
   </sheetData>
@@ -798,12 +798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0083623554046683</v>
+        <v>0.0163519601705793</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00089930462489449</v>
+        <v>-0.00153860905264522</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00089930462489449</v>
+        <v>-0.00153860905264522</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000164672134298569</v>
+        <v>0.000283415875118776</v>
       </c>
     </row>
   </sheetData>
